--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.096574</v>
+        <v>2.979488</v>
       </c>
       <c r="H2">
-        <v>6.289722000000001</v>
+        <v>8.938464</v>
       </c>
       <c r="I2">
-        <v>0.004316650849965926</v>
+        <v>0.01229331913219231</v>
       </c>
       <c r="J2">
-        <v>0.0043243034519904</v>
+        <v>0.01233795916068688</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N2">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O2">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P2">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q2">
-        <v>0.07380848995400001</v>
+        <v>0.1884744655786667</v>
       </c>
       <c r="R2">
-        <v>0.6642764095860001</v>
+        <v>1.696270190208</v>
       </c>
       <c r="S2">
-        <v>2.174032938013371E-05</v>
+        <v>0.002147762693278758</v>
       </c>
       <c r="T2">
-        <v>2.177887085462624E-05</v>
+        <v>0.002155561741428128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.096574</v>
+        <v>2.979488</v>
       </c>
       <c r="H3">
-        <v>6.289722000000001</v>
+        <v>8.938464</v>
       </c>
       <c r="I3">
-        <v>0.004316650849965926</v>
+        <v>0.01229331913219231</v>
       </c>
       <c r="J3">
-        <v>0.0043243034519904</v>
+        <v>0.01233795916068688</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.1703</v>
       </c>
       <c r="O3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q3">
-        <v>0.1190155174</v>
+        <v>0.1691356021333333</v>
       </c>
       <c r="R3">
-        <v>1.0711396566</v>
+        <v>1.5222204192</v>
       </c>
       <c r="S3">
-        <v>3.505608299581274E-05</v>
+        <v>0.001927386477801638</v>
       </c>
       <c r="T3">
-        <v>3.511823077218572E-05</v>
+        <v>0.001934385286371068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.096574</v>
+        <v>2.979488</v>
       </c>
       <c r="H4">
-        <v>6.289722000000001</v>
+        <v>8.938464</v>
       </c>
       <c r="I4">
-        <v>0.004316650849965926</v>
+        <v>0.01229331913219231</v>
       </c>
       <c r="J4">
-        <v>0.0043243034519904</v>
+        <v>0.01233795916068688</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N4">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q4">
-        <v>0.5214060732140001</v>
+        <v>0.7211761319359999</v>
       </c>
       <c r="R4">
-        <v>4.692654658926</v>
+        <v>6.490585187423999</v>
       </c>
       <c r="S4">
-        <v>0.0001535804320009686</v>
+        <v>0.008218169961111917</v>
       </c>
       <c r="T4">
-        <v>0.0001538527009348481</v>
+        <v>0.008248012132887688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.096574</v>
+        <v>14.18535633333333</v>
       </c>
       <c r="H5">
-        <v>6.289722000000001</v>
+        <v>42.55606899999999</v>
       </c>
       <c r="I5">
-        <v>0.004316650849965926</v>
+        <v>0.05852855000910628</v>
       </c>
       <c r="J5">
-        <v>0.0043243034519904</v>
+        <v>0.05874108139400382</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.649330666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N5">
-        <v>19.947992</v>
+        <v>0.189772</v>
       </c>
       <c r="O5">
-        <v>0.951263872921625</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P5">
-        <v>0.9512638729216248</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q5">
-        <v>13.940813793136</v>
+        <v>0.8973278140297777</v>
       </c>
       <c r="R5">
-        <v>125.467324138224</v>
+        <v>8.075950326267998</v>
       </c>
       <c r="S5">
-        <v>0.004106274005589011</v>
+        <v>0.01022550824960493</v>
       </c>
       <c r="T5">
-        <v>0.004113553649428739</v>
+        <v>0.01026263955439945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,43 +791,43 @@
         <v>14.18535633333333</v>
       </c>
       <c r="H6">
-        <v>42.556069</v>
+        <v>42.55606899999999</v>
       </c>
       <c r="I6">
-        <v>0.02920632921773944</v>
+        <v>0.05852855000910628</v>
       </c>
       <c r="J6">
-        <v>0.02925810649180387</v>
+        <v>0.05874108139400382</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03520433333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N6">
-        <v>0.105613</v>
+        <v>0.1703</v>
       </c>
       <c r="O6">
-        <v>0.005036388194404308</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P6">
-        <v>0.005036388194404307</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q6">
-        <v>0.4993860128107777</v>
+        <v>0.8052553945222221</v>
       </c>
       <c r="R6">
-        <v>4.494474115297</v>
+        <v>7.247298550699999</v>
       </c>
       <c r="S6">
-        <v>0.0001470944116741085</v>
+        <v>0.009176296054780047</v>
       </c>
       <c r="T6">
-        <v>0.000147355182125945</v>
+        <v>0.009209617415183627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,48 +853,48 @@
         <v>14.18535633333333</v>
       </c>
       <c r="H7">
-        <v>42.556069</v>
+        <v>42.55606899999999</v>
       </c>
       <c r="I7">
-        <v>0.02920632921773944</v>
+        <v>0.05852855000910628</v>
       </c>
       <c r="J7">
-        <v>0.02925810649180387</v>
+        <v>0.05874108139400382</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05676666666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N7">
-        <v>0.1703</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q7">
-        <v>0.8052553945222222</v>
+        <v>3.433522944414332</v>
       </c>
       <c r="R7">
-        <v>7.2472985507</v>
+        <v>30.90170649972899</v>
       </c>
       <c r="S7">
-        <v>0.0002371883982852554</v>
+        <v>0.0391267457047213</v>
       </c>
       <c r="T7">
-        <v>0.0002376088882623204</v>
+        <v>0.03926882442442075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.18535633333333</v>
+        <v>109.4796983333333</v>
       </c>
       <c r="H8">
-        <v>42.556069</v>
+        <v>328.439095</v>
       </c>
       <c r="I8">
-        <v>0.02920632921773944</v>
+        <v>0.4517114585149561</v>
       </c>
       <c r="J8">
-        <v>0.02925810649180387</v>
+        <v>0.4533517325664633</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2486943333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7460829999999999</v>
+        <v>0.189772</v>
       </c>
       <c r="O8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q8">
-        <v>3.527817736414111</v>
+        <v>6.925393770704444</v>
       </c>
       <c r="R8">
-        <v>31.750359627727</v>
+        <v>62.32854393634</v>
       </c>
       <c r="S8">
-        <v>0.001039120562289244</v>
+        <v>0.07891839529199177</v>
       </c>
       <c r="T8">
-        <v>0.001040962725668918</v>
+        <v>0.07920496715893004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.18535633333333</v>
+        <v>109.4796983333333</v>
       </c>
       <c r="H9">
-        <v>42.556069</v>
+        <v>328.439095</v>
       </c>
       <c r="I9">
-        <v>0.02920632921773944</v>
+        <v>0.4517114585149561</v>
       </c>
       <c r="J9">
-        <v>0.02925810649180387</v>
+        <v>0.4533517325664633</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.649330666666667</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N9">
-        <v>19.947992</v>
+        <v>0.1703</v>
       </c>
       <c r="O9">
-        <v>0.951263872921625</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P9">
-        <v>0.9512638729216248</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q9">
-        <v>94.32312488482755</v>
+        <v>6.214797542055555</v>
       </c>
       <c r="R9">
-        <v>848.908123963448</v>
+        <v>55.9331778785</v>
       </c>
       <c r="S9">
-        <v>0.02778292584549083</v>
+        <v>0.07082078872660981</v>
       </c>
       <c r="T9">
-        <v>0.02783217969574668</v>
+        <v>0.07107795621675371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>119.7385153333333</v>
+        <v>109.4796983333333</v>
       </c>
       <c r="H10">
-        <v>359.215546</v>
+        <v>328.439095</v>
       </c>
       <c r="I10">
-        <v>0.2465304654103749</v>
+        <v>0.4517114585149561</v>
       </c>
       <c r="J10">
-        <v>0.2469675170979601</v>
+        <v>0.4533517325664633</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.03520433333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N10">
-        <v>0.105613</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O10">
-        <v>0.005036388194404308</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P10">
-        <v>0.005036388194404307</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q10">
-        <v>4.215314606633111</v>
+        <v>26.49923254248833</v>
       </c>
       <c r="R10">
-        <v>37.937831459698</v>
+        <v>238.493092882395</v>
       </c>
       <c r="S10">
-        <v>0.001241623125553812</v>
+        <v>0.3019722744963545</v>
       </c>
       <c r="T10">
-        <v>0.00124382428751351</v>
+        <v>0.3030688091907796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>119.7385153333333</v>
+        <v>2.6307215</v>
       </c>
       <c r="H11">
-        <v>359.215546</v>
+        <v>5.261443</v>
       </c>
       <c r="I11">
-        <v>0.2465304654103749</v>
+        <v>0.01085431421352248</v>
       </c>
       <c r="J11">
-        <v>0.2469675170979601</v>
+        <v>0.007262485910362437</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.05676666666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N11">
-        <v>0.1703</v>
+        <v>0.189772</v>
       </c>
       <c r="O11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q11">
-        <v>6.797156387088889</v>
+        <v>0.1664124268326667</v>
       </c>
       <c r="R11">
-        <v>61.1744074838</v>
+        <v>0.998474560996</v>
       </c>
       <c r="S11">
-        <v>0.002002105974471079</v>
+        <v>0.001896354505910524</v>
       </c>
       <c r="T11">
-        <v>0.002005655328070889</v>
+        <v>0.001268827086567092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>119.7385153333333</v>
+        <v>2.6307215</v>
       </c>
       <c r="H12">
-        <v>359.215546</v>
+        <v>5.261443</v>
       </c>
       <c r="I12">
-        <v>0.2465304654103749</v>
+        <v>0.01085431421352248</v>
       </c>
       <c r="J12">
-        <v>0.2469675170979601</v>
+        <v>0.007262485910362437</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2486943333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N12">
-        <v>0.7460829999999999</v>
+        <v>0.1703</v>
       </c>
       <c r="O12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q12">
-        <v>29.77829024514644</v>
+        <v>0.1493372904833333</v>
       </c>
       <c r="R12">
-        <v>268.004612206318</v>
+        <v>0.8960237429</v>
       </c>
       <c r="S12">
-        <v>0.008771210990906086</v>
+        <v>0.001701774615625921</v>
       </c>
       <c r="T12">
-        <v>0.008786760681932548</v>
+        <v>0.001138636115140146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>119.7385153333333</v>
+        <v>2.6307215</v>
       </c>
       <c r="H13">
-        <v>359.215546</v>
+        <v>5.261443</v>
       </c>
       <c r="I13">
-        <v>0.2465304654103749</v>
+        <v>0.01085431421352248</v>
       </c>
       <c r="J13">
-        <v>0.2469675170979601</v>
+        <v>0.007262485910362437</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.649330666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N13">
-        <v>19.947992</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O13">
-        <v>0.951263872921625</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P13">
-        <v>0.9512638729216248</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q13">
-        <v>796.1809819870703</v>
+        <v>0.6367582469105</v>
       </c>
       <c r="R13">
-        <v>7165.628837883633</v>
+        <v>3.820549481462999</v>
       </c>
       <c r="S13">
-        <v>0.2345155253194439</v>
+        <v>0.007256185091986033</v>
       </c>
       <c r="T13">
-        <v>0.2349312768004432</v>
+        <v>0.0048550227086552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5785615</v>
+        <v>113.0911763333333</v>
       </c>
       <c r="H14">
-        <v>5.157123</v>
+        <v>339.273529</v>
       </c>
       <c r="I14">
-        <v>0.005309018279662159</v>
+        <v>0.4666123581302228</v>
       </c>
       <c r="J14">
-        <v>0.003545620107095208</v>
+        <v>0.4683067409684837</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N14">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O14">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P14">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q14">
-        <v>0.0907765385665</v>
+        <v>7.153846238376445</v>
       </c>
       <c r="R14">
-        <v>0.5446592313990001</v>
+        <v>64.38461614538799</v>
       </c>
       <c r="S14">
-        <v>2.673827698756717E-05</v>
+        <v>0.0815217277155481</v>
       </c>
       <c r="T14">
-        <v>1.785711924921684E-05</v>
+        <v>0.08181775291500938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5785615</v>
+        <v>113.0911763333333</v>
       </c>
       <c r="H15">
-        <v>5.157123</v>
+        <v>339.273529</v>
       </c>
       <c r="I15">
-        <v>0.005309018279662159</v>
+        <v>0.4666123581302228</v>
       </c>
       <c r="J15">
-        <v>0.003545620107095208</v>
+        <v>0.4683067409684837</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>0.1703</v>
       </c>
       <c r="O15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q15">
-        <v>0.14637634115</v>
+        <v>6.419809109855556</v>
       </c>
       <c r="R15">
-        <v>0.8782580469000001</v>
+        <v>57.7782819887</v>
       </c>
       <c r="S15">
-        <v>4.311522796419653E-05</v>
+        <v>0.07315700013678436</v>
       </c>
       <c r="T15">
-        <v>2.879444204919497E-05</v>
+        <v>0.07342265097815324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,362 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>113.0911763333333</v>
+      </c>
+      <c r="H16">
+        <v>339.273529</v>
+      </c>
+      <c r="I16">
+        <v>0.4666123581302228</v>
+      </c>
+      <c r="J16">
+        <v>0.4683067409684837</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.5785615</v>
-      </c>
-      <c r="H16">
-        <v>5.157123</v>
-      </c>
-      <c r="I16">
-        <v>0.005309018279662159</v>
-      </c>
-      <c r="J16">
-        <v>0.003545620107095208</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N16">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q16">
-        <v>0.6412736332015</v>
+        <v>27.37337995795433</v>
       </c>
       <c r="R16">
-        <v>3.847641799209</v>
+        <v>246.360419621589</v>
       </c>
       <c r="S16">
-        <v>0.0001888874845872674</v>
+        <v>0.3119336302778903</v>
       </c>
       <c r="T16">
-        <v>0.000126148230812622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.5785615</v>
-      </c>
-      <c r="H17">
-        <v>5.157123</v>
-      </c>
-      <c r="I17">
-        <v>0.005309018279662159</v>
-      </c>
-      <c r="J17">
-        <v>0.003545620107095208</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N17">
-        <v>19.947992</v>
-      </c>
-      <c r="O17">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P17">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q17">
-        <v>17.145708057836</v>
-      </c>
-      <c r="R17">
-        <v>102.874248347016</v>
-      </c>
-      <c r="S17">
-        <v>0.005050277290123128</v>
-      </c>
-      <c r="T17">
-        <v>0.003372820314984174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>347.095591</v>
-      </c>
-      <c r="H18">
-        <v>1041.286773</v>
-      </c>
-      <c r="I18">
-        <v>0.7146375362422577</v>
-      </c>
-      <c r="J18">
-        <v>0.7159044528511503</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.03520433333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.105613</v>
-      </c>
-      <c r="O18">
-        <v>0.005036388194404308</v>
-      </c>
-      <c r="P18">
-        <v>0.005036388194404307</v>
-      </c>
-      <c r="Q18">
-        <v>12.21926888409433</v>
-      </c>
-      <c r="R18">
-        <v>109.973419956849</v>
-      </c>
-      <c r="S18">
-        <v>0.003599192050808687</v>
-      </c>
-      <c r="T18">
-        <v>0.003605572734661008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>347.095591</v>
-      </c>
-      <c r="H19">
-        <v>1041.286773</v>
-      </c>
-      <c r="I19">
-        <v>0.7146375362422577</v>
-      </c>
-      <c r="J19">
-        <v>0.7159044528511503</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05676666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.1703</v>
-      </c>
-      <c r="O19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="P19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="Q19">
-        <v>19.70345971576667</v>
-      </c>
-      <c r="R19">
-        <v>177.3311374419</v>
-      </c>
-      <c r="S19">
-        <v>0.005803664380831143</v>
-      </c>
-      <c r="T19">
-        <v>0.005813953175392896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>347.095591</v>
-      </c>
-      <c r="H20">
-        <v>1041.286773</v>
-      </c>
-      <c r="I20">
-        <v>0.7146375362422577</v>
-      </c>
-      <c r="J20">
-        <v>0.7159044528511503</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.2486943333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.7460829999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="P20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="Q20">
-        <v>86.32070660668434</v>
-      </c>
-      <c r="R20">
-        <v>776.8863594601589</v>
-      </c>
-      <c r="S20">
-        <v>0.0254258093496397</v>
-      </c>
-      <c r="T20">
-        <v>0.02547088448007432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>347.095591</v>
-      </c>
-      <c r="H21">
-        <v>1041.286773</v>
-      </c>
-      <c r="I21">
-        <v>0.7146375362422577</v>
-      </c>
-      <c r="J21">
-        <v>0.7159044528511503</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N21">
-        <v>19.947992</v>
-      </c>
-      <c r="O21">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P21">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q21">
-        <v>2307.953357501091</v>
-      </c>
-      <c r="R21">
-        <v>20771.58021750981</v>
-      </c>
-      <c r="S21">
-        <v>0.6798088704609782</v>
-      </c>
-      <c r="T21">
-        <v>0.681014042461022</v>
+        <v>0.3130663370753211</v>
       </c>
     </row>
   </sheetData>
